--- a/3.boom表/boom表.xlsx
+++ b/3.boom表/boom表.xlsx
@@ -104,7 +104,7 @@
     <t>无</t>
   </si>
   <si>
-    <t>扭簧（备注：外径7mm 5圈 10个左旋 10个右旋）</t>
+    <t>扭簧1mm线径（备注：180°外径7mm 5圈 10个左旋 10个右旋）</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?_u=o2rtso892f62&amp;id=774983364150&amp;spm=a1z09.2.0.0.5f5b2e8dbkjZDJ</t>
@@ -786,7 +786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,9 +795,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1336,12 +1333,12 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="103.375" customWidth="1"/>
@@ -1368,13 +1365,13 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>75</v>
       </c>
       <c r="E2" t="s">
@@ -1385,16 +1382,16 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>5.88</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1402,16 +1399,16 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>7.78</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1419,16 +1416,16 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>6.72</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1436,16 +1433,16 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1.55</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1453,16 +1450,16 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2.5</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1470,16 +1467,16 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>8</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>2.2</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1487,16 +1484,16 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>14</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>2.7</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1504,16 +1501,16 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>4</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1521,16 +1518,16 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>4.8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1538,16 +1535,16 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>3.5</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1555,13 +1552,13 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1569,16 +1566,16 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>16</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1586,16 +1583,16 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>600</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1603,13 +1600,13 @@
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <f>SUM(D2:D15)</f>
         <v>730.63</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3"/>
@@ -1661,7 +1658,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3"/>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>37</v>
       </c>
     </row>

--- a/3.boom表/boom表.xlsx
+++ b/3.boom表/boom表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>序号</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?_u=o2rtso892f62&amp;id=774983364150&amp;spm=a1z09.2.0.0.5f5b2e8dbkjZDJ</t>
+  </si>
+  <si>
+    <t>2*16mm圆柱销</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?app=chrome&amp;bxsign=scdG-1d8RI-Idz0CsPEtZMP8B85WrPnqsirK-J1hFWffnXSy7QFoTIrFm1B-ai3F2dGFiqTTmw9OW_erra6W_h4LuKUPNxrp_RmvVWhnGDirlS_NS1GOpa_BOugKkHJvGzV&amp;cpp=1&amp;id=625526967156&amp;share_crt_v=1&amp;shareurl=true&amp;short_name=h.TZNSbEtLidpU6ry&amp;sourceType=item&amp;sp_tk=VzdFbjNxcGpMNUE%3D&amp;spm=a2159r.13376460.0.0&amp;suid=2BFC3A0C-E02F-4D81-BC73-59BCAF5B0B3B&amp;tbSocialPopKey=shareItem&amp;tk=W7En3qpjL5A&amp;un=e8c3c5034c7ed753acddb6ba99b396ee&amp;un_site=0&amp;ut_sk=1.Yq5%2FFMQnaeUDAMvfzgkXOy5y_21380790_1731132056711.Copy.ShareGlobalNavigation_1</t>
   </si>
   <si>
     <t>达妙4310电机</t>
@@ -1330,18 +1336,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="103.375" customWidth="1"/>
+    <col min="5" max="5" width="103.37962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1590,80 +1596,94 @@
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>600</v>
+        <v>1.74</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="3">
-        <f>SUM(D2:D15)</f>
-        <v>730.63</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>600</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
+        <f>SUM(D2:D16)</f>
+        <v>732.37</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="3"/>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="3"/>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="3"/>
+      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3"/>
@@ -1674,9 +1694,12 @@
     <row r="30" spans="1:1">
       <c r="A30" s="3"/>
     </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="https://item.taobao.com/item.htm?_u=o2rtso892302&amp;id=772416223822&amp;spm=a1z09.2.0.0.5f5b2e8dbkjZDJ"/>
@@ -1690,8 +1713,8 @@
     <hyperlink ref="E11" r:id="rId5" display="https://item.taobao.com/item.htm?_u=o2rtso89210a&amp;id=644048426609&amp;spm=a1z09.2.0.0.5f5b2e8dbkjZDJ"/>
     <hyperlink ref="E12" r:id="rId6" display="https://detail.tmall.com/item.htm?_u=o2rtso89c698&amp;id=618185951811&amp;spm=a1z09.2.0.0.5f5b2e8dbkjZDJ&amp;sku_properties=122276018%3A20213"/>
     <hyperlink ref="E14" r:id="rId7" display="https://detail.tmall.com/item.htm?_u=o2rtso892f62&amp;id=774983364150&amp;spm=a1z09.2.0.0.5f5b2e8dbkjZDJ"/>
-    <hyperlink ref="E15" r:id="rId8" display="https://item.taobao.com/item.htm?abbucket=12&amp;id=815333472865&amp;ns=1&amp;pisk=fmXnKtqa_6RBk2cMj5JQZlncbLPtOD9WOaHJyLLz_F8spQ88OaAlyNOPppIdSU7Ar3BdeTfsEis5pk98ApsBFLzYk-plAM9S_nVIR9mNbnSZUU8r-MJIYLzYk8ctbBapUwnuzk-Z_nTwY3RyTl2w4HvyYQ-UjF-kcbuFzaSaj3-X4Dle4AowV3vrzB-e7F-y02-rU3kaj3TwzbFoUEXPCOzQllhkseYVIHAa6M8ZGeWwxBYVY9DrU0tHtESe7rfT1eANVQXSVYARYs_W0wuUrU6Gb95VuPhp8sxlD_b42Xt9Z99Mz9yjmFWhqOAC62lempYHg9RnDosBa1XMp9zSGGIM8IvO65apwpbhGEOU1P_ljeQPKCu3WUCAX9RGuPHGPQfPpdWU7-jzbflqlMHWbuBZNbOefhYxxr9pW_CWWEEgjjNBThtLklqiNbOefhYYjlcjRB-6vrC..&amp;priceTId=2147816e17297746598715807e0e31&amp;skuId=5513150905586&amp;spm=a21n57.1.item.3.339c523cfNR46m&amp;utparam=%7B%22aplus_abtest%22%3A%227258dce59d7e8cce5b9b86584ed994d6%22%7D&amp;xxc=taobaoSearch"/>
-    <hyperlink ref="B26" r:id="rId9" display="https://detail.tmall.com/item.htm?_u=o2rtso892077&amp;id=645580609321&amp;spm=a1z09.2.0.0.40262e8drWVAiV"/>
+    <hyperlink ref="E16" r:id="rId8" display="https://item.taobao.com/item.htm?abbucket=12&amp;id=815333472865&amp;ns=1&amp;pisk=fmXnKtqa_6RBk2cMj5JQZlncbLPtOD9WOaHJyLLz_F8spQ88OaAlyNOPppIdSU7Ar3BdeTfsEis5pk98ApsBFLzYk-plAM9S_nVIR9mNbnSZUU8r-MJIYLzYk8ctbBapUwnuzk-Z_nTwY3RyTl2w4HvyYQ-UjF-kcbuFzaSaj3-X4Dle4AowV3vrzB-e7F-y02-rU3kaj3TwzbFoUEXPCOzQllhkseYVIHAa6M8ZGeWwxBYVY9DrU0tHtESe7rfT1eANVQXSVYARYs_W0wuUrU6Gb95VuPhp8sxlD_b42Xt9Z99Mz9yjmFWhqOAC62lempYHg9RnDosBa1XMp9zSGGIM8IvO65apwpbhGEOU1P_ljeQPKCu3WUCAX9RGuPHGPQfPpdWU7-jzbflqlMHWbuBZNbOefhYxxr9pW_CWWEEgjjNBThtLklqiNbOefhYYjlcjRB-6vrC..&amp;priceTId=2147816e17297746598715807e0e31&amp;skuId=5513150905586&amp;spm=a21n57.1.item.3.339c523cfNR46m&amp;utparam=%7B%22aplus_abtest%22%3A%227258dce59d7e8cce5b9b86584ed994d6%22%7D&amp;xxc=taobaoSearch"/>
+    <hyperlink ref="B27" r:id="rId9" display="https://detail.tmall.com/item.htm?_u=o2rtso892077&amp;id=645580609321&amp;spm=a1z09.2.0.0.40262e8drWVAiV"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
